--- a/黑色/铁矿/data_input/铁矿期货价格.xlsx
+++ b/黑色/铁矿/data_input/铁矿期货价格.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2961"/>
+  <dimension ref="A1:D2963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36587,6 +36587,26 @@
         <v>0.5648</v>
       </c>
     </row>
+    <row r="2962">
+      <c r="A2962" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B2962" t="inlineStr"/>
+      <c r="C2962" t="n">
+        <v>786.5</v>
+      </c>
+      <c r="D2962" t="inlineStr"/>
+    </row>
+    <row r="2963">
+      <c r="A2963" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B2963" t="inlineStr"/>
+      <c r="C2963" t="n">
+        <v>792.5</v>
+      </c>
+      <c r="D2963" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
